--- a/biology/Histoire de la zoologie et de la botanique/Charles_Vaurie/Charles_Vaurie.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Vaurie/Charles_Vaurie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Vaurie (7 juillet 1906 à Beaulieu-sur-Dordogne - 13 mai 1975 à Reading) est un ornithologiste américain né français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît en France mais emménage très tôt à Trenton, dans le New Jersey. Il étudie à l'université de New York puis est diplômé dentiste par l'université de Pennsylvanie, en 1928.
 Il développe un intérêt pour la peinture d'oiseaux et, après avoir épousé l’entomologiste Patricia Wilson, en 1934, il fait avec elle de nombreuses excursions de terrain. Vaurie s'associe au American Museum of Natural History (AMNH) et il est en 1946 associé aux recherches. Il continue de produire jusqu'à plus de 150 publications ornithologiques. Son plus important travail sera une révision de la systématique des oiseaux paléarctiques. En 1956, il est ornithologiste à plein temps pour l'AMNH, et promu conservateur en 1967. À sa mort il était membre du Comité permanent sur la nomenclature ornithologique du Congrès ornithologique international (COI).
@@ -544,7 +558,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>A Revision of the bird family Dicruridae. N.Y., 1949.
 Systematic notes on Palearctic birds N.Y. 1956 (American Museum of Natural History, American Museum Novitates)
@@ -580,7 +596,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Charles Vaurie » (voir la liste des auteurs).
 Notices d'autorité : VIAF ISNI IdRef LCCN GND CiNii Pays-Bas Israël NUKAT Norvège Tchéquie WorldCat 
